--- a/excel_trabajo.xlsx
+++ b/excel_trabajo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Desktop\MPOWER\Maquinas Electricas\trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B335245C-D0C8-4B16-96E0-FAC2DEF3D354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBFB96B-2B93-4498-988E-81D0CA8139E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C71D7C5-BAF8-49DC-BB4E-6F0DE6C3C229}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1C71D7C5-BAF8-49DC-BB4E-6F0DE6C3C229}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>p</t>
   </si>
@@ -161,6 +161,15 @@
   <si>
     <t>Ilinea (mod) (A)</t>
   </si>
+  <si>
+    <t>Pabs (W)</t>
+  </si>
+  <si>
+    <t>Ired Arr (A)</t>
+  </si>
+  <si>
+    <t>T Arr (Nm)</t>
+  </si>
 </sst>
 </file>
 
@@ -207,18 +216,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -342,29 +342,27 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,6 +927,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CCB7-4423-A3FE-9FB75F168749}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ired nom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Datos!$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Datos!$Q$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31.506842680863684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA1B-41A8-A2F4-5EA290BA6A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Datos!$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Datos!$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>182.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA1B-41A8-A2F4-5EA290BA6A4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1532,7 +1645,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Datos!$V$4:$V$54</c:f>
+              <c:f>Datos!$W$4:$W$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1767,7 +1880,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Datos!$V$42:$V$54</c:f>
+              <c:f>Datos!$W$42:$W$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1817,6 +1930,124 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-194B-4B4A-9735-B20B9DF3F885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>T nom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Datos!$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Datos!$W$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>146.60787923244217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C94-4E7F-A674-7A2805DD08F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tarr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Datos!$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Datos!$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>263.90072447172008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C94-4E7F-A674-7A2805DD08F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2808,7 +3039,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Datos!$V$42:$V$54</c:f>
+              <c:f>Datos!$W$42:$W$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5866,10 +6097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A6CD39-EB49-4CA6-91A3-226AE09AFADE}">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView topLeftCell="I9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5880,28 +6111,29 @@
     <col min="16" max="16" width="13.109375" customWidth="1"/>
     <col min="17" max="17" width="14.33203125" customWidth="1"/>
     <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>400</v>
       </c>
       <c r="C3" t="s">
@@ -5939,23 +6171,26 @@
         <v>36</v>
       </c>
       <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
         <v>38</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>3</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>37</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="E4" t="s">
@@ -5989,31 +6224,35 @@
         <v>161.61808490264238</v>
       </c>
       <c r="R4">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O4,$F$8)),COMPLEX($B$8/M4,$B$9)))</f>
+        <f t="shared" ref="R4:R35" si="0">IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O4,$F$8)),COMPLEX($B$8/M4,$B$9)))</f>
         <v>88.297824120771637</v>
       </c>
       <c r="S4">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O4)))</f>
+        <v>44608.624469108399</v>
+      </c>
+      <c r="T4">
         <f>3*(1-M4)/M4*$B$8*R4*R4</f>
         <v>0</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f>$B$12*(L4/($F$3*60/2/PI()))^2</f>
         <v>0</v>
       </c>
-      <c r="U4">
-        <f>S4-T4</f>
+      <c r="V4">
+        <f>T4-U4</f>
         <v>0</v>
       </c>
-      <c r="V4">
-        <f>V5-(V6-V5)</f>
+      <c r="W4">
+        <f>W5-(W6-W5)</f>
         <v>128.5061803600814</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>15000</v>
       </c>
       <c r="E5" t="s">
@@ -6028,51 +6267,55 @@
         <v>50</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M68" si="0">($F$3-L5*2*PI()/60)/$F$3</f>
+        <f t="shared" ref="M5:M54" si="1">($F$3-L5*2*PI()/60)/$F$3</f>
         <v>0.95</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ref="N5:N68" si="1">IMSUM($F$8,IMDIV(1,IMSUM(IMDIV(1,$F$9),IMDIV(1,COMPLEX($B$8/M5,$B$9)))))</f>
+        <f t="shared" ref="N5:N54" si="2">IMSUM($F$8,IMDIV(1,IMSUM(IMDIV(1,$F$9),IMDIV(1,COMPLEX($B$8/M5,$B$9)))))</f>
         <v>1,73503183387707+3,93273726778458i</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" ref="O5:O68" si="2">IMDIV(COMPLEX($B$3,0),N5)</f>
+        <f t="shared" ref="O5:O54" si="3">IMDIV(COMPLEX($B$3,0),N5)</f>
         <v>37,5613913427617-85,139120031838i</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P68" si="3">IMABS(O5)</f>
+        <f t="shared" ref="P5:P54" si="4">IMABS(O5)</f>
         <v>93.056584288269548</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q54" si="4">P5*SQRT(3)</f>
+        <f t="shared" ref="Q5:Q54" si="5">P5*SQRT(3)</f>
         <v>161.17873196609855</v>
       </c>
       <c r="R5">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O5,$F$8)),COMPLEX($B$8/M5,$B$9)))</f>
+        <f t="shared" si="0"/>
         <v>88.056225514236203</v>
       </c>
       <c r="S5">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O5)))</f>
+        <v>45073.669611314101</v>
+      </c>
+      <c r="T5">
         <f>3*(1-M5)/M5*$B$8*R5*R5</f>
         <v>707.57183722380012</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f>$B$12*(L5/($F$3*60/2/PI()))^2</f>
         <v>6.0149999999999988E-2</v>
       </c>
-      <c r="U5">
-        <f t="shared" ref="U5:U54" si="5">S5-T5</f>
+      <c r="V5">
+        <f t="shared" ref="V5:V53" si="6">T5-U5</f>
         <v>707.5116872238001</v>
       </c>
-      <c r="V5">
-        <f>U5/(L5*2*PI()/60)</f>
+      <c r="W5">
+        <f>V5/(L5*2*PI()/60)</f>
         <v>135.12477878034571</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>1.18956</v>
       </c>
       <c r="E6" t="s">
@@ -6083,55 +6326,59 @@
         <v>0.75364226867902273</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L26" si="6">L5+50</f>
+        <f t="shared" ref="L6:L19" si="7">L5+50</f>
         <v>100</v>
       </c>
       <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>1,76527829406394+3,93371997856958i</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="3"/>
+        <v>37,9826590378114-84,6399942709676i</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>92.771822326458945</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>160.68550978017961</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="1"/>
-        <v>1,76527829406394+3,93371997856958i</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="2"/>
-        <v>37,9826590378114-84,6399942709676i</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="3"/>
-        <v>92.771822326458945</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="4"/>
-        <v>160.68550978017961</v>
-      </c>
-      <c r="R6">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O6,$F$8)),COMPLEX($B$8/M6,$B$9)))</f>
         <v>87.784965500839547</v>
       </c>
       <c r="S6">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O6)))</f>
+        <v>45579.1908453738</v>
+      </c>
+      <c r="T6">
         <f>3*(1-M6)/M6*$B$8*R6*R6</f>
         <v>1484.5737750281448</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f>$B$12*(L6/($F$3*60/2/PI()))^2</f>
         <v>0.24059999999999995</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="5"/>
+      <c r="V6">
+        <f t="shared" si="6"/>
         <v>1484.3331750281448</v>
       </c>
-      <c r="V6">
-        <f>U6/(L6*2*PI()/60)</f>
+      <c r="W6">
+        <f>V6/(L6*2*PI()/60)</f>
         <v>141.74337720061001</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>2.0161099999999998</v>
       </c>
       <c r="E7" t="s">
@@ -6142,55 +6389,59 @@
         <v>0.75779685670922692</v>
       </c>
       <c r="L7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>1,79907951530194+3,93488243850744i</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="3"/>
+        <v>38,4418968713031-84,0787433880697i</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>92.450065033945634</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>160.12820980184074</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="1"/>
-        <v>1,79907951530194+3,93488243850744i</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="2"/>
-        <v>38,4418968713031-84,0787433880697i</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
-        <v>92.450065033945634</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="4"/>
-        <v>160.12820980184074</v>
-      </c>
-      <c r="R7">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O7,$F$8)),COMPLEX($B$8/M7,$B$9)))</f>
         <v>87.478416439204295</v>
       </c>
       <c r="S7">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O7)))</f>
+        <v>46130.276245563604</v>
+      </c>
+      <c r="T7">
         <f>3*(1-M7)/M7*$B$8*R7*R7</f>
         <v>2341.413764304516</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f>$B$12*(L7/($F$3*60/2/PI()))^2</f>
         <v>0.54135</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="5"/>
+      <c r="V7">
+        <f t="shared" si="6"/>
         <v>2340.872414304516</v>
       </c>
-      <c r="V7">
-        <f>U7/(L7*2*PI()/60)</f>
+      <c r="W7">
+        <f>V7/(L7*2*PI()/60)</f>
         <v>149.02456635360917</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>0.57794000000000001</v>
       </c>
       <c r="E8" t="s">
@@ -6201,55 +6452,59 @@
         <v>1,18956+2,01611i</v>
       </c>
       <c r="L8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>1,83710104441926+3,93627110753195i</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="3"/>
+        <v>38,9439704607079-83,443437258249i</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>92.08387511782847</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>159.49395026190643</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="0"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="1"/>
-        <v>1,83710104441926+3,93627110753195i</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="2"/>
-        <v>38,9439704607079-83,443437258249i</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="3"/>
-        <v>92.08387511782847</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="4"/>
-        <v>159.49395026190643</v>
-      </c>
-      <c r="R8">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O8,$F$8)),COMPLEX($B$8/M8,$B$9)))</f>
         <v>87.129475350736612</v>
       </c>
       <c r="S8">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O8)))</f>
+        <v>46732.7645528496</v>
+      </c>
+      <c r="T8">
         <f>3*(1-M8)/M8*$B$8*R8*R8</f>
         <v>3290.5933438204488</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f>$B$12*(L8/($F$3*60/2/PI()))^2</f>
         <v>0.96239999999999981</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="5"/>
+      <c r="V8">
+        <f t="shared" si="6"/>
         <v>3289.6309438204489</v>
       </c>
-      <c r="V8">
-        <f>U8/(L8*2*PI()/60)</f>
+      <c r="W8">
+        <f>V8/(L8*2*PI()/60)</f>
         <v>157.06830769712445</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>2.0161099999999998</v>
       </c>
       <c r="E9" t="s">
@@ -6260,575 +6515,619 @@
         <v>0,23599713143951+35,6557379892497i</v>
       </c>
       <c r="L9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>1,88018555721891+3,93794845591441i</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="3"/>
+        <v>39,494436661759-82,7189929590951i</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>91.663745959875115</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>158.76626521459011</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="0"/>
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="1"/>
-        <v>1,88018555721891+3,93794845591441i</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="2"/>
-        <v>39,494436661759-82,7189929590951i</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
-        <v>91.663745959875115</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="4"/>
-        <v>158.76626521459011</v>
-      </c>
-      <c r="R9">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O9,$F$8)),COMPLEX($B$8/M9,$B$9)))</f>
         <v>86.729060584765151</v>
       </c>
       <c r="S9">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O9)))</f>
+        <v>47393.323994110804</v>
+      </c>
+      <c r="T9">
         <f>3*(1-M9)/M9*$B$8*R9*R9</f>
         <v>4347.2241952543718</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f>$B$12*(L9/($F$3*60/2/PI()))^2</f>
         <v>1.5037499999999995</v>
       </c>
-      <c r="U9">
+      <c r="V9">
+        <f t="shared" si="6"/>
+        <v>4345.720445254372</v>
+      </c>
+      <c r="W9">
+        <f>V9/(L9*2*PI()/60)</f>
+        <v>165.99429363785896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>35.657299999999999</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v>1,92941595456934+3,94000006404697i</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="3"/>
+        <v>40,099579137012-81,886098222583i</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>91.177350965489225</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="5"/>
-        <v>4345.720445254372</v>
-      </c>
-      <c r="V9">
-        <f>U9/(L9*2*PI()/60)</f>
-        <v>165.99429363785896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4">
-        <v>35.657299999999999</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="M10">
+        <v>157.92380437176655</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="1"/>
-        <v>1,92941595456934+3,94000006404697i</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="2"/>
-        <v>40,099579137012-81,886098222583i</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
-        <v>91.177350965489225</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="4"/>
-        <v>157.92380437176655</v>
-      </c>
-      <c r="R10">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O10,$F$8)),COMPLEX($B$8/M10,$B$9)))</f>
         <v>86.265393153057701</v>
       </c>
       <c r="S10">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O10)))</f>
+        <v>48119.4949644144</v>
+      </c>
+      <c r="T10">
         <f>3*(1-M10)/M10*$B$8*R10*R10</f>
         <v>5529.6855426842749</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f>$B$12*(L10/($F$3*60/2/PI()))^2</f>
         <v>2.1654</v>
       </c>
-      <c r="U10">
+      <c r="V10">
+        <f t="shared" si="6"/>
+        <v>5527.520142684275</v>
+      </c>
+      <c r="W10">
+        <f>V10/(L10*2*PI()/60)</f>
+        <v>175.94643074964421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5387.3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>350</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v>1,98620748198636+3,94254568345465i</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="3"/>
+        <v>40,766369123528-80,9196793767731i</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>90.608450830788939</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="5"/>
-        <v>5527.520142684275</v>
-      </c>
-      <c r="V10">
-        <f>U10/(L10*2*PI()/60)</f>
-        <v>175.94643074964421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5387.3</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="6"/>
-        <v>350</v>
-      </c>
-      <c r="M11">
+        <v>156.93844043403288</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="0"/>
-        <v>0.65000000000000013</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="1"/>
-        <v>1,98620748198636+3,94254568345465i</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="2"/>
-        <v>40,766369123528-80,9196793767731i</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="3"/>
-        <v>90.608450830788939</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="4"/>
-        <v>156.93844043403288</v>
-      </c>
-      <c r="R11">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O11,$F$8)),COMPLEX($B$8/M11,$B$9)))</f>
         <v>85.722950099541904</v>
       </c>
       <c r="S11">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O11)))</f>
+        <v>48919.642948233603</v>
+      </c>
+      <c r="T11">
         <f>3*(1-M11)/M11*$B$8*R11*R11</f>
         <v>6860.4548928264376</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f>$B$12*(L11/($F$3*60/2/PI()))^2</f>
         <v>2.9473499999999992</v>
       </c>
-      <c r="U11">
+      <c r="V11">
+        <f t="shared" si="6"/>
+        <v>6857.5075428264372</v>
+      </c>
+      <c r="W11">
+        <f>V11/(L11*2*PI()/60)</f>
+        <v>187.09820961099169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>24.06</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="2"/>
+        <v>2,05244573028686+3,94575700032912i</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="3"/>
+        <v>41,5022608555469-79,7866827286936i</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>89.935267815085055</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="5"/>
-        <v>6857.5075428264372</v>
-      </c>
-      <c r="V11">
-        <f>U11/(L11*2*PI()/60)</f>
-        <v>187.09820961099169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
-        <v>24.06</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-      <c r="M12">
+        <v>155.77245324804133</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="1"/>
-        <v>2,05244573028686+3,94575700032912i</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="2"/>
-        <v>41,5022608555469-79,7866827286936i</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
-        <v>89.935267815085055</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="4"/>
-        <v>155.77245324804133</v>
-      </c>
-      <c r="R12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O12,$F$8)),COMPLEX($B$8/M12,$B$9)))</f>
         <v>85.080906564458473</v>
       </c>
       <c r="S12">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O12)))</f>
+        <v>49802.713026656405</v>
+      </c>
+      <c r="T12">
         <f>3*(1-M12)/M12*$B$8*R12*R12</f>
         <v>8367.138673796193</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f>$B$12*(L12/($F$3*60/2/PI()))^2</f>
         <v>3.8495999999999992</v>
       </c>
-      <c r="U12">
+      <c r="V12">
+        <f t="shared" si="6"/>
+        <v>8363.2890737961934</v>
+      </c>
+      <c r="W12">
+        <f>V12/(L12*2*PI()/60)</f>
+        <v>199.65881949016548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>977</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>450</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="2"/>
+        <v>2,13069956773975+3,94988717622534i</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="3"/>
+        <v>42,3146378186881-78,4428024566393i</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>89.128008117415504</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="5"/>
-        <v>8363.2890737961934</v>
-      </c>
-      <c r="V12">
-        <f>U12/(L12*2*PI()/60)</f>
-        <v>199.65881949016548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4">
-        <v>977</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="6"/>
-        <v>450</v>
-      </c>
-      <c r="M13">
+        <v>154.37423843677496</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="1"/>
-        <v>2,13069956773975+3,94988717622534i</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="2"/>
-        <v>42,3146378186881-78,4428024566393i</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
-        <v>89.128008117415504</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="4"/>
-        <v>154.37423843677496</v>
-      </c>
-      <c r="R13">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O13,$F$8)),COMPLEX($B$8/M13,$B$9)))</f>
         <v>84.310760026540223</v>
       </c>
       <c r="S13">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O13)))</f>
+        <v>50777.565382425601</v>
+      </c>
+      <c r="T13">
         <f>3*(1-M13)/M13*$B$8*R13*R13</f>
         <v>10083.698251835171</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f>$B$12*(L13/($F$3*60/2/PI()))^2</f>
         <v>4.8721499999999986</v>
       </c>
-      <c r="U13">
+      <c r="V13">
+        <f t="shared" si="6"/>
+        <v>10078.826101835171</v>
+      </c>
+      <c r="W13">
+        <f>V13/(L13*2*PI()/60)</f>
+        <v>213.87933262275817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>90.2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="2"/>
+        <v>2,22456114377602+3,95532200778631i</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="3"/>
+        <v>43,2095320825758-76,8275637963623i</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>88.144984098241608</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="5"/>
-        <v>10078.826101835171</v>
-      </c>
-      <c r="V13">
-        <f>U13/(L13*2*PI()/60)</f>
-        <v>213.87933262275817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4">
-        <v>90.2</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="M14">
+        <v>152.67159089050523</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="0"/>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="1"/>
-        <v>2,22456114377602+3,95532200778631i</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="2"/>
-        <v>43,2095320825758-76,8275637963623i</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="3"/>
-        <v>88.144984098241608</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="4"/>
-        <v>152.67159089050523</v>
-      </c>
-      <c r="R14">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O14,$F$8)),COMPLEX($B$8/M14,$B$9)))</f>
         <v>83.372609186527455</v>
       </c>
       <c r="S14">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O14)))</f>
+        <v>51851.438499090902</v>
+      </c>
+      <c r="T14">
         <f>3*(1-M14)/M14*$B$8*R14*R14</f>
         <v>12051.768884542143</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f>$B$12*(L14/($F$3*60/2/PI()))^2</f>
         <v>6.0149999999999979</v>
       </c>
-      <c r="U14">
+      <c r="V14">
+        <f t="shared" si="6"/>
+        <v>12045.753884542144</v>
+      </c>
+      <c r="W14">
+        <f>V14/(L14*2*PI()/60)</f>
+        <v>230.05695287919389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>91.2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>550</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v>2,33921108961541+3,96267286115653i</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="3"/>
+        <v>44,1888249076427-74,85680022862i</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>86.926364166378349</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="5"/>
-        <v>12045.753884542144</v>
-      </c>
-      <c r="V14">
-        <f>U14/(L14*2*PI()/60)</f>
-        <v>230.05695287919389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4">
-        <v>91.2</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="6"/>
-        <v>550</v>
-      </c>
-      <c r="M15">
+        <v>150.56087925340194</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="0"/>
-        <v>0.45000000000000007</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="1"/>
-        <v>2,33921108961541+3,96267286115653i</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="2"/>
-        <v>44,1888249076427-74,85680022862i</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="3"/>
-        <v>86.926364166378349</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="4"/>
-        <v>150.56087925340194</v>
-      </c>
-      <c r="R15">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O15,$F$8)),COMPLEX($B$8/M15,$B$9)))</f>
         <v>82.209150737246546</v>
       </c>
       <c r="S15">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O15)))</f>
+        <v>53026.5898891713</v>
+      </c>
+      <c r="T15">
         <f>3*(1-M15)/M15*$B$8*R15*R15</f>
         <v>14321.697866912451</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f>$B$12*(L15/($F$3*60/2/PI()))^2</f>
         <v>7.2781499999999983</v>
       </c>
-      <c r="U15">
+      <c r="V15">
+        <f t="shared" si="6"/>
+        <v>14314.419716912451</v>
+      </c>
+      <c r="W15">
+        <f>V15/(L15*2*PI()/60)</f>
+        <v>248.53207150240428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>90.7</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v>2,48240422743488+3,97295541396176i</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="3"/>
+        <v>45,2442254872464-72,4109670026646i</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>85.383769430740045</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="5"/>
-        <v>14314.419716912451</v>
-      </c>
-      <c r="V15">
-        <f>U15/(L15*2*PI()/60)</f>
-        <v>248.53207150240428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4">
-        <v>90.7</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="M16">
+        <v>147.88902679578811</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="0"/>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="1"/>
-        <v>2,48240422743488+3,97295541396176i</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="2"/>
-        <v>45,2442254872464-72,4109670026646i</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="3"/>
-        <v>85.383769430740045</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="4"/>
-        <v>147.88902679578811</v>
-      </c>
-      <c r="R16">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O16,$F$8)),COMPLEX($B$8/M16,$B$9)))</f>
         <v>80.735674707629641</v>
       </c>
       <c r="S16">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O16)))</f>
+        <v>54293.070584695801</v>
+      </c>
+      <c r="T16">
         <f>3*(1-M16)/M16*$B$8*R16*R16</f>
         <v>16952.206165184547</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f>$B$12*(L16/($F$3*60/2/PI()))^2</f>
         <v>8.6616</v>
       </c>
-      <c r="U16">
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>16943.544565184548</v>
+      </c>
+      <c r="W16">
+        <f>V16/(L16*2*PI()/60)</f>
+        <v>269.66488710469395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>650</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v>2,6662916237823+3,98795821033184i</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="3"/>
+        <v>46,3442522828693-69,3168518194502i</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>83.382346247978973</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="5"/>
-        <v>16943.544565184548</v>
-      </c>
-      <c r="V16">
-        <f>U16/(L16*2*PI()/60)</f>
-        <v>269.66488710469395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="6"/>
-        <v>650</v>
-      </c>
-      <c r="M17">
+        <v>144.42246015579971</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="0"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="1"/>
-        <v>2,6662916237823+3,98795821033184i</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="2"/>
-        <v>46,3442522828693-69,3168518194502i</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
-        <v>83.382346247978973</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="4"/>
-        <v>144.42246015579971</v>
-      </c>
-      <c r="R17">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O17,$F$8)),COMPLEX($B$8/M17,$B$9)))</f>
         <v>78.822794982654614</v>
       </c>
       <c r="S17">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O17)))</f>
+        <v>55613.1027394431</v>
+      </c>
+      <c r="T17">
         <f>3*(1-M17)/M17*$B$8*R17*R17</f>
         <v>20005.664512696872</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f>$B$12*(L17/($F$3*60/2/PI()))^2</f>
         <v>10.165349999999997</v>
       </c>
-      <c r="U17">
+      <c r="V17">
+        <f t="shared" si="6"/>
+        <v>19995.499162696873</v>
+      </c>
+      <c r="W17">
+        <f>V17/(L17*2*PI()/60)</f>
+        <v>293.75838750766724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>700</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v>2,91104058009695+4,011071562953i</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="3"/>
+        <v>47,4055787911463-65,3193123842203i</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>80.708744698892048</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="5"/>
-        <v>19995.499162696873</v>
-      </c>
-      <c r="V17">
-        <f>U17/(L17*2*PI()/60)</f>
-        <v>293.75838750766724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4">
-        <v>31.5</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="6"/>
-        <v>700</v>
-      </c>
-      <c r="M18">
+        <v>139.79164643358629</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="0"/>
-        <v>0.30000000000000016</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="1"/>
-        <v>2,91104058009695+4,011071562953i</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="2"/>
-        <v>47,4055787911463-65,3193123842203i</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="3"/>
-        <v>80.708744698892048</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="4"/>
-        <v>139.79164643358629</v>
-      </c>
-      <c r="R18">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O18,$F$8)),COMPLEX($B$8/M18,$B$9)))</f>
         <v>76.265526388890919</v>
       </c>
       <c r="S18">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O18)))</f>
+        <v>56886.694549375505</v>
+      </c>
+      <c r="T18">
         <f>3*(1-M18)/M18*$B$8*R18*R18</f>
         <v>23530.834964389232</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f>$B$12*(L18/($F$3*60/2/PI()))^2</f>
         <v>11.789399999999997</v>
       </c>
-      <c r="U18">
+      <c r="V18">
+        <f t="shared" si="6"/>
+        <v>23519.045564389231</v>
+      </c>
+      <c r="W18">
+        <f>V18/(L18*2*PI()/60)</f>
+        <v>320.84334500366248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>750</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v>3,25271990411415+4,04937238653848i</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="3"/>
+        <v>48,2284485228906-60,0405056233616i</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>77.011983239194819</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="5"/>
-        <v>23519.045564389231</v>
-      </c>
-      <c r="V18">
-        <f>U18/(L18*2*PI()/60)</f>
-        <v>320.84334500366248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="6"/>
-        <v>750</v>
-      </c>
-      <c r="M19">
+        <v>133.38866776192822</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="0"/>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="1"/>
-        <v>3,25271990411415+4,04937238653848i</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="2"/>
-        <v>48,2284485228906-60,0405056233616i</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="3"/>
-        <v>77.011983239194819</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="4"/>
-        <v>133.38866776192822</v>
-      </c>
-      <c r="R19">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O19,$F$8)),COMPLEX($B$8/M19,$B$9)))</f>
         <v>72.725947800035669</v>
       </c>
       <c r="S19">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O19)))</f>
+        <v>57874.138227468604</v>
+      </c>
+      <c r="T19">
         <f>3*(1-M19)/M19*$B$8*R19*R19</f>
         <v>27510.852146436049</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f>$B$12*(L19/($F$3*60/2/PI()))^2</f>
         <v>13.533749999999994</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="5"/>
+      <c r="V19">
+        <f t="shared" si="6"/>
         <v>27497.318396436051</v>
       </c>
-      <c r="V19">
-        <f>U19/(L19*2*PI()/60)</f>
+      <c r="W19">
+        <f>V19/(L19*2*PI()/60)</f>
         <v>350.10673156516049</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>146</v>
       </c>
       <c r="L20">
@@ -6836,1616 +7135,1770 @@
         <v>760</v>
       </c>
       <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v>3,33794164844927+4,06002574122103i</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="3"/>
+        <v>48,3310260017659-58,78629117377i</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>76.103325185898669</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>131.81482584691267</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="1"/>
-        <v>3,33794164844927+4,06002574122103i</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="2"/>
-        <v>48,3310260017659-58,78629117377i</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="3"/>
-        <v>76.103325185898669</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="4"/>
-        <v>131.81482584691267</v>
-      </c>
-      <c r="R20">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O20,$F$8)),COMPLEX($B$8/M20,$B$9)))</f>
         <v>71.855258677669696</v>
       </c>
       <c r="S20">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O20)))</f>
+        <v>57997.231202119205</v>
+      </c>
+      <c r="T20">
         <f>3*(1-M20)/M20*$B$8*R20*R20</f>
         <v>28348.068482621042</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f>$B$12*(L20/($F$3*60/2/PI()))^2</f>
         <v>13.897055999999997</v>
       </c>
-      <c r="U20">
+      <c r="V20">
+        <f t="shared" si="6"/>
+        <v>28334.17142662104</v>
+      </c>
+      <c r="W20">
+        <f>V20/(L20*2*PI()/60)</f>
+        <v>356.01500849683248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L41" si="8">L20+10</f>
+        <v>770</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0.23000000000000007</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="2"/>
+        <v>3,4304766390139+4,07209267195914i</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="3"/>
+        <v>48,4016012119607-57,4543500354428i</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>75.124678620789211</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="5"/>
-        <v>28334.17142662104</v>
-      </c>
-      <c r="V20">
-        <f>U20/(L20*2*PI()/60)</f>
-        <v>356.01500849683248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="L21">
-        <f t="shared" ref="L21:L41" si="7">L20+10</f>
-        <v>770</v>
-      </c>
-      <c r="M21">
+        <v>130.11976027349033</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="0"/>
-        <v>0.23000000000000007</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="1"/>
-        <v>3,4304766390139+4,07209267195914i</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="2"/>
-        <v>48,4016012119607-57,4543500354428i</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="3"/>
-        <v>75.124678620789211</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="4"/>
-        <v>130.11976027349033</v>
-      </c>
-      <c r="R21">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O21,$F$8)),COMPLEX($B$8/M21,$B$9)))</f>
         <v>70.917202920690585</v>
       </c>
       <c r="S21">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O21)))</f>
+        <v>58081.921454352901</v>
+      </c>
+      <c r="T21">
         <f>3*(1-M21)/M21*$B$8*R21*R21</f>
         <v>29192.419654401609</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f>$B$12*(L21/($F$3*60/2/PI()))^2</f>
         <v>14.265173999999996</v>
       </c>
-      <c r="U21">
+      <c r="V21">
+        <f t="shared" si="6"/>
+        <v>29178.154480401608</v>
+      </c>
+      <c r="W21">
+        <f>V21/(L21*2*PI()/60)</f>
+        <v>361.85824798868953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="8"/>
+        <v>780</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0.22000000000000014</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v>3,53130351715868+4,08583406683254i</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="3"/>
+        <v>48,4334935436073-56,0391416185629i</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>74.068810508769474</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="5"/>
-        <v>29178.154480401608</v>
-      </c>
-      <c r="V21">
-        <f>U21/(L21*2*PI()/60)</f>
-        <v>361.85824798868953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="7"/>
-        <v>780</v>
-      </c>
-      <c r="M22">
+        <v>128.2909430573803</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="0"/>
-        <v>0.22000000000000014</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="1"/>
-        <v>3,53130351715868+4,08583406683254i</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="2"/>
-        <v>48,4334935436073-56,0391416185629i</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="3"/>
-        <v>74.068810508769474</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="4"/>
-        <v>128.2909430573803</v>
-      </c>
-      <c r="R22">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O22,$F$8)),COMPLEX($B$8/M22,$B$9)))</f>
         <v>69.904769599714712</v>
       </c>
       <c r="S22">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O22)))</f>
+        <v>58120.192252328692</v>
+      </c>
+      <c r="T22">
         <f>3*(1-M22)/M22*$B$8*R22*R22</f>
         <v>30039.28197004148</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f>$B$12*(L22/($F$3*60/2/PI()))^2</f>
         <v>14.638103999999995</v>
       </c>
-      <c r="U22">
+      <c r="V22">
+        <f t="shared" si="6"/>
+        <v>30024.643866041479</v>
+      </c>
+      <c r="W22">
+        <f>V22/(L22*2*PI()/60)</f>
+        <v>367.58234506571205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="13">
+        <f>$B$18*$B$19</f>
+        <v>182.7</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="8"/>
+        <v>790</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v>3,64158265111038+4,10157375351684i</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="3"/>
+        <v>48,4188118989714-54,5348951508036i</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>72.927608865347537</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="5"/>
-        <v>30024.643866041479</v>
-      </c>
-      <c r="V22">
-        <f>U22/(L22*2*PI()/60)</f>
-        <v>367.58234506571205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L23">
-        <f t="shared" si="7"/>
-        <v>790</v>
-      </c>
-      <c r="M23">
+        <v>126.31432382929241</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="0"/>
-        <v>0.21000000000000008</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="1"/>
-        <v>3,64158265111038+4,10157375351684i</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="2"/>
-        <v>48,4188118989714-54,5348951508036i</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="3"/>
-        <v>72.927608865347537</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="4"/>
-        <v>126.31432382929241</v>
-      </c>
-      <c r="R23">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O23,$F$8)),COMPLEX($B$8/M23,$B$9)))</f>
         <v>68.81008423380716</v>
       </c>
       <c r="S23">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O23)))</f>
+        <v>58102.574278765795</v>
+      </c>
+      <c r="T23">
         <f>3*(1-M23)/M23*$B$8*R23*R23</f>
         <v>30882.751285840106</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f>$B$12*(L23/($F$3*60/2/PI()))^2</f>
         <v>15.015845999999996</v>
       </c>
-      <c r="U23">
+      <c r="V23">
+        <f t="shared" si="6"/>
+        <v>30867.735439840108</v>
+      </c>
+      <c r="W23">
+        <f>V23/(L23*2*PI()/60)</f>
+        <v>373.12045650405821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3">
+        <f>$F$4*$B$21</f>
+        <v>263.90072447172008</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v>3,76270008178988+4,11971759583237i</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="3"/>
+        <v>48,3482415403956-52,9356837037016i</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>71.691973534188421</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="5"/>
-        <v>30867.735439840108</v>
-      </c>
-      <c r="V23">
-        <f>U23/(L23*2*PI()/60)</f>
-        <v>373.12045650405821</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L24">
-        <f t="shared" si="7"/>
-        <v>800</v>
-      </c>
-      <c r="M24">
+        <v>124.17414065609762</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="0"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="1"/>
-        <v>3,76270008178988+4,11971759583237i</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="2"/>
-        <v>48,3482415403956-52,9356837037016i</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="3"/>
-        <v>71.691973534188421</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="4"/>
-        <v>124.17414065609762</v>
-      </c>
-      <c r="R24">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O24,$F$8)),COMPLEX($B$8/M24,$B$9)))</f>
         <v>67.62429773386809</v>
       </c>
       <c r="S24">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O24)))</f>
+        <v>58017.889848474602</v>
+      </c>
+      <c r="T24">
         <f>3*(1-M24)/M24*$B$8*R24*R24</f>
         <v>31715.351993912245</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f>$B$12*(L24/($F$3*60/2/PI()))^2</f>
         <v>15.398399999999997</v>
       </c>
-      <c r="U24">
+      <c r="V24">
+        <f t="shared" si="6"/>
+        <v>31699.953593912247</v>
+      </c>
+      <c r="W24">
+        <f>V24/(L24*2*PI()/60)</f>
+        <v>378.390323269112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>810</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.19000000000000011</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v>3,89632476622314+4,14077969085408i</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="3"/>
+        <v>48,2107981306723-51,2355375275515i</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>70.351697649264835</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="5"/>
-        <v>31699.953593912247</v>
-      </c>
-      <c r="V24">
-        <f>U24/(L24*2*PI()/60)</f>
-        <v>378.390323269112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L25">
-        <f t="shared" si="7"/>
-        <v>810</v>
-      </c>
-      <c r="M25">
+        <v>121.85271472725064</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="0"/>
-        <v>0.19000000000000011</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="1"/>
-        <v>3,89632476622314+4,14077969085408i</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="2"/>
-        <v>48,2107981306723-51,2355375275515i</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="3"/>
-        <v>70.351697649264835</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="4"/>
-        <v>121.85271472725064</v>
-      </c>
-      <c r="R25">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O25,$F$8)),COMPLEX($B$8/M25,$B$9)))</f>
         <v>66.337464208596757</v>
       </c>
       <c r="S25">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O25)))</f>
+        <v>57852.957756806696</v>
+      </c>
+      <c r="T25">
         <f>3*(1-M25)/M25*$B$8*R25*R25</f>
         <v>32527.685248147562</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f>$B$12*(L25/($F$3*60/2/PI()))^2</f>
         <v>15.785765999999997</v>
       </c>
-      <c r="U25">
+      <c r="V25">
+        <f t="shared" si="6"/>
+        <v>32511.899482147561</v>
+      </c>
+      <c r="W25">
+        <f>V25/(L25*2*PI()/60)</f>
+        <v>383.29107495486051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f t="shared" si="8"/>
+        <v>820</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v>4,04448401644492+4,16541884364821i</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="3"/>
+        <v>47,9935470901334-49,4286105742809i</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>68.895341682850855</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="5"/>
-        <v>32511.899482147561</v>
-      </c>
-      <c r="V25">
-        <f>U25/(L25*2*PI()/60)</f>
-        <v>383.29107495486051</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L26">
-        <f t="shared" si="7"/>
-        <v>820</v>
-      </c>
-      <c r="M26">
+        <v>119.33023219951555</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="0"/>
-        <v>0.18000000000000005</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="1"/>
-        <v>4,04448401644492+4,16541884364821i</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="2"/>
-        <v>47,9935470901334-49,4286105742809i</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="3"/>
-        <v>68.895341682850855</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="4"/>
-        <v>119.33023219951555</v>
-      </c>
-      <c r="R26">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O26,$F$8)),COMPLEX($B$8/M26,$B$9)))</f>
         <v>64.938408568280138</v>
       </c>
       <c r="S26">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O26)))</f>
+        <v>57592.256508160193</v>
+      </c>
+      <c r="T26">
         <f>3*(1-M26)/M26*$B$8*R26*R26</f>
         <v>33308.006299573295</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f>$B$12*(L26/($F$3*60/2/PI()))^2</f>
         <v>16.177943999999997</v>
       </c>
-      <c r="U26">
+      <c r="V26">
+        <f t="shared" si="6"/>
+        <v>33291.828355573292</v>
+      </c>
+      <c r="W26">
+        <f>V26/(L26*2*PI()/60)</f>
+        <v>387.69944248949378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>830</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0.17000000000000012</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="2"/>
+        <v>4,20966418312341+4,19449018497253i</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="3"/>
+        <v>47,6812883571785-47,5094181675648i</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>67.310103803373707</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="5"/>
-        <v>33291.828355573292</v>
-      </c>
-      <c r="V26">
-        <f>U26/(L26*2*PI()/60)</f>
-        <v>387.69944248949378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L27">
-        <f t="shared" si="7"/>
-        <v>830</v>
-      </c>
-      <c r="M27">
+        <v>116.58451965017838</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="0"/>
-        <v>0.17000000000000012</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="1"/>
-        <v>4,20966418312341+4,19449018497253i</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="2"/>
-        <v>47,6812883571785-47,5094181675648i</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="3"/>
-        <v>67.310103803373707</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="4"/>
-        <v>116.58451965017838</v>
-      </c>
-      <c r="R27">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O27,$F$8)),COMPLEX($B$8/M27,$B$9)))</f>
         <v>63.414586193996463</v>
       </c>
       <c r="S27">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O27)))</f>
+        <v>57217.546028614204</v>
+      </c>
+      <c r="T27">
         <f>3*(1-M27)/M27*$B$8*R27*R27</f>
         <v>34041.720767588216</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f>$B$12*(L27/($F$3*60/2/PI()))^2</f>
         <v>16.574933999999999</v>
       </c>
-      <c r="U27">
+      <c r="V27">
+        <f t="shared" si="6"/>
+        <v>34025.14583358822</v>
+      </c>
+      <c r="W27">
+        <f>V27/(L27*2*PI()/60)</f>
+        <v>391.46531196420528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>840</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000009</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v>4,39494689273733+4,22911954082912i</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="3"/>
+        <v>47,2562100823241-45,4731687008413i</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>65.581693047983464</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="5"/>
-        <v>34025.14583358822</v>
-      </c>
-      <c r="V27">
-        <f>U27/(L27*2*PI()/60)</f>
-        <v>391.46531196420528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L28">
-        <f t="shared" si="7"/>
-        <v>840</v>
-      </c>
-      <c r="M28">
+        <v>113.59082440549398</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="0"/>
-        <v>0.16000000000000009</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="1"/>
-        <v>4,39494689273733+4,22911954082912i</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="2"/>
-        <v>47,2562100823241-45,4731687008413i</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="3"/>
-        <v>65.581693047983464</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="4"/>
-        <v>113.59082440549398</v>
-      </c>
-      <c r="R28">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O28,$F$8)),COMPLEX($B$8/M28,$B$9)))</f>
         <v>61.751938963554139</v>
       </c>
       <c r="S28">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O28)))</f>
+        <v>56707.452098788795</v>
+      </c>
+      <c r="T28">
         <f>3*(1-M28)/M28*$B$8*R28*R28</f>
         <v>34710.790874924984</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f>$B$12*(L28/($F$3*60/2/PI()))^2</f>
         <v>16.976735999999995</v>
       </c>
-      <c r="U28">
+      <c r="V28">
+        <f t="shared" si="6"/>
+        <v>34693.814138924987</v>
+      </c>
+      <c r="W28">
+        <f>V28/(L28*2*PI()/60)</f>
+        <v>394.40657249438573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>850</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000016</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v>4,60419617464557+4,27081273207925i</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="3"/>
+        <v>46,6975204426232-43,3162179233683i</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>63.694215990731415</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="5"/>
-        <v>34693.814138924987</v>
-      </c>
-      <c r="V28">
-        <f>U28/(L28*2*PI()/60)</f>
-        <v>394.40657249438573</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L29">
-        <f t="shared" si="7"/>
-        <v>850</v>
-      </c>
-      <c r="M29">
+        <v>110.32161824421284</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="0"/>
-        <v>0.15000000000000016</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="1"/>
-        <v>4,60419617464557+4,27081273207925i</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="2"/>
-        <v>46,6975204426232-43,3162179233683i</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="3"/>
-        <v>63.694215990731415</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="4"/>
-        <v>110.32161824421284</v>
-      </c>
-      <c r="R29">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O29,$F$8)),COMPLEX($B$8/M29,$B$9)))</f>
         <v>59.934754913734949</v>
       </c>
       <c r="S29">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O29)))</f>
+        <v>56037.024531147908</v>
+      </c>
+      <c r="T29">
         <f>3*(1-M29)/M29*$B$8*R29*R29</f>
         <v>35293.046024048126</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f>$B$12*(L29/($F$3*60/2/PI()))^2</f>
         <v>17.383349999999993</v>
       </c>
-      <c r="U29">
+      <c r="V29">
+        <f t="shared" si="6"/>
+        <v>35275.66267404813</v>
+      </c>
+      <c r="W29">
+        <f>V29/(L29*2*PI()/60)</f>
+        <v>396.30325308826076</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f t="shared" si="8"/>
+        <v>860</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0.1400000000000001</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v>4,84231971575712+4,3216198017504i</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="3"/>
+        <v>45,9810756268751-41,0366804753239i</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>61.63009378735552</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="5"/>
-        <v>35275.66267404813</v>
-      </c>
-      <c r="V29">
-        <f>U29/(L29*2*PI()/60)</f>
-        <v>396.30325308826076</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L30">
-        <f t="shared" si="7"/>
-        <v>860</v>
-      </c>
-      <c r="M30">
+        <v>106.74645371493477</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="0"/>
-        <v>0.1400000000000001</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="1"/>
-        <v>4,84231971575712+4,3216198017504i</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="2"/>
-        <v>45,9810756268751-41,0366804753239i</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="3"/>
-        <v>61.63009378735552</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="4"/>
-        <v>106.74645371493477</v>
-      </c>
-      <c r="R30">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O30,$F$8)),COMPLEX($B$8/M30,$B$9)))</f>
         <v>57.945543117665082</v>
       </c>
       <c r="S30">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O30)))</f>
+        <v>55177.290752250003</v>
+      </c>
+      <c r="T30">
         <f>3*(1-M30)/M30*$B$8*R30*R30</f>
         <v>35761.398942438325</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <f>$B$12*(L30/($F$3*60/2/PI()))^2</f>
         <v>17.794775999999995</v>
       </c>
-      <c r="U30">
+      <c r="V30">
+        <f t="shared" si="6"/>
+        <v>35743.604166438323</v>
+      </c>
+      <c r="W30">
+        <f>V30/(L30*2*PI()/60)</f>
+        <v>396.89102002386448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>870</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0.13000000000000003</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v>5,11564014391968+4,3843879580673i</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="3"/>
+        <v>45,0790353901058-38,6352390639877i</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>59.370035617589885</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="5"/>
-        <v>35743.604166438323</v>
-      </c>
-      <c r="V30">
-        <f>U30/(L30*2*PI()/60)</f>
-        <v>396.89102002386448</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L31">
-        <f t="shared" si="7"/>
-        <v>870</v>
-      </c>
-      <c r="M31">
+        <v>102.83191813683956</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="0"/>
-        <v>0.13000000000000003</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="1"/>
-        <v>5,11564014391968+4,3843879580673i</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="2"/>
-        <v>45,0790353901058-38,6352390639877i</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="3"/>
-        <v>59.370035617589885</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="4"/>
-        <v>102.83191813683956</v>
-      </c>
-      <c r="R31">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O31,$F$8)),COMPLEX($B$8/M31,$B$9)))</f>
         <v>55.764941379609503</v>
       </c>
       <c r="S31">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O31)))</f>
+        <v>54094.842468126895</v>
+      </c>
+      <c r="T31">
         <f>3*(1-M31)/M31*$B$8*R31*R31</f>
         <v>36082.98091715078</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f>$B$12*(L31/($F$3*60/2/PI()))^2</f>
         <v>18.211013999999995</v>
       </c>
-      <c r="U31">
-        <f t="shared" si="5"/>
+      <c r="V31">
+        <f t="shared" si="6"/>
         <v>36064.76990315078</v>
       </c>
-      <c r="V31">
-        <f>U31/(L31*2*PI()/60)</f>
+      <c r="W31">
+        <f>V31/(L31*2*PI()/60)</f>
         <v>395.85423459022496</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="L32">
         <f>L31+10</f>
         <v>880</v>
       </c>
       <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v>5,43243294323711+4,46316217301078i</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="3"/>
+        <v>43,959596921925-36,116195482355i</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>56.893107997874381</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>98.541753652821669</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="1"/>
-        <v>5,43243294323711+4,46316217301078i</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="2"/>
-        <v>43,959596921925-36,116195482355i</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="3"/>
-        <v>56.893107997874381</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="4"/>
-        <v>98.541753652821669</v>
-      </c>
-      <c r="R32">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O32,$F$8)),COMPLEX($B$8/M32,$B$9)))</f>
         <v>53.371682539303222</v>
       </c>
       <c r="S32">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O32)))</f>
+        <v>52751.516306310004</v>
+      </c>
+      <c r="T32">
         <f>3*(1-M32)/M32*$B$8*R32*R32</f>
         <v>36218.230028644371</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f>$B$12*(L32/($F$3*60/2/PI()))^2</f>
         <v>18.632063999999996</v>
       </c>
-      <c r="U32">
+      <c r="V32">
+        <f t="shared" si="6"/>
+        <v>36199.597964644374</v>
+      </c>
+      <c r="W32">
+        <f>V32/(L32*2*PI()/60)</f>
+        <v>392.81897413721356</v>
+      </c>
+    </row>
+    <row r="33" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f t="shared" si="8"/>
+        <v>890</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>0.11000000000000007</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="2"/>
+        <v>5,80372209720913+4,5638400103246i</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="3"/>
+        <v>42,5868846603405-33,48880681613i</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>54.176959374269245</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="5"/>
-        <v>36199.597964644374</v>
-      </c>
-      <c r="V32">
-        <f>U32/(L32*2*PI()/60)</f>
-        <v>392.81897413721356</v>
-      </c>
-    </row>
-    <row r="33" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L33">
-        <f t="shared" si="7"/>
-        <v>890</v>
-      </c>
-      <c r="M33">
+        <v>93.837246235829298</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="0"/>
-        <v>0.11000000000000007</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="1"/>
-        <v>5,80372209720913+4,5638400103246i</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="2"/>
-        <v>42,5868846603405-33,48880681613i</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="3"/>
-        <v>54.176959374269245</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="4"/>
-        <v>93.837246235829298</v>
-      </c>
-      <c r="R33">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O33,$F$8)),COMPLEX($B$8/M33,$B$9)))</f>
         <v>50.742655909600302</v>
       </c>
       <c r="S33">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O33)))</f>
+        <v>51104.261592408599</v>
+      </c>
+      <c r="T33">
         <f>3*(1-M33)/M33*$B$8*R33*R33</f>
         <v>36119.998149329753</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f>$B$12*(L33/($F$3*60/2/PI()))^2</f>
         <v>19.057925999999995</v>
       </c>
-      <c r="U33">
+      <c r="V33">
+        <f t="shared" si="6"/>
+        <v>36100.940223329751</v>
+      </c>
+      <c r="W33">
+        <f>V33/(L33*2*PI()/60)</f>
+        <v>387.34672495334576</v>
+      </c>
+    </row>
+    <row r="34" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <f t="shared" si="8"/>
+        <v>900</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="2"/>
+        <v>6,24448293666882+4,69528138171062i</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="3"/>
+        <v>40,9211091723042-30,7689401931755i</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>51.19828958571614</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="5"/>
-        <v>36100.940223329751</v>
-      </c>
-      <c r="V33">
-        <f>U33/(L33*2*PI()/60)</f>
-        <v>387.34672495334576</v>
-      </c>
-    </row>
-    <row r="34" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L34">
-        <f t="shared" si="7"/>
-        <v>900</v>
-      </c>
-      <c r="M34">
+        <v>88.678038823084876</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="0"/>
-        <v>0.10000000000000014</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="1"/>
-        <v>6,24448293666882+4,69528138171062i</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="2"/>
-        <v>40,9211091723042-30,7689401931755i</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="3"/>
-        <v>51.19828958571614</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="4"/>
-        <v>88.678038823084876</v>
-      </c>
-      <c r="R34">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O34,$F$8)),COMPLEX($B$8/M34,$B$9)))</f>
         <v>47.853113755336175</v>
       </c>
       <c r="S34">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O34)))</f>
+        <v>49105.331006765104</v>
+      </c>
+      <c r="T34">
         <f>3*(1-M34)/M34*$B$8*R34*R34</f>
         <v>35732.789590638626</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <f>$B$12*(L34/($F$3*60/2/PI()))^2</f>
         <v>19.488599999999995</v>
       </c>
-      <c r="U34">
+      <c r="V34">
+        <f t="shared" si="6"/>
+        <v>35713.300990638629</v>
+      </c>
+      <c r="W34">
+        <f>V34/(L34*2*PI()/60)</f>
+        <v>378.92989245258804</v>
+      </c>
+    </row>
+    <row r="35" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <f t="shared" si="8"/>
+        <v>910</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000094E-2</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="2"/>
+        <v>6,77550116759095+4,8712690802607i</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="3"/>
+        <v>38,9191518674956-27,9810535682499i</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>47.93370151442987</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="5"/>
-        <v>35713.300990638629</v>
-      </c>
-      <c r="V34">
-        <f>U34/(L34*2*PI()/60)</f>
-        <v>378.92989245258804</v>
-      </c>
-    </row>
-    <row r="35" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L35">
-        <f t="shared" si="7"/>
-        <v>910</v>
-      </c>
-      <c r="M35">
+        <v>83.023606417833776</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="0"/>
-        <v>9.0000000000000094E-2</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="1"/>
-        <v>6,77550116759095+4,8712690802607i</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="2"/>
-        <v>38,9191518674956-27,9810535682499i</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="3"/>
-        <v>47.93370151442987</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="4"/>
-        <v>83.023606417833776</v>
-      </c>
-      <c r="R35">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O35,$F$8)),COMPLEX($B$8/M35,$B$9)))</f>
         <v>44.677088244521237</v>
       </c>
       <c r="S35">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O35)))</f>
+        <v>46702.982240994599</v>
+      </c>
+      <c r="T35">
         <f>3*(1-M35)/M35*$B$8*R35*R35</f>
         <v>34992.309993980984</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <f>$B$12*(L35/($F$3*60/2/PI()))^2</f>
         <v>19.924085999999996</v>
       </c>
-      <c r="U35">
+      <c r="V35">
+        <f t="shared" si="6"/>
+        <v>34972.385907980984</v>
+      </c>
+      <c r="W35">
+        <f>V35/(L35*2*PI()/60)</f>
+        <v>366.99086300917691</v>
+      </c>
+    </row>
+    <row r="36" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>920</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="2"/>
+        <v>7,42630388410723+5,11414326730727i</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="3"/>
+        <v>36,5357803501808-25,1604590937309i</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>44.361153587389538</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="5"/>
-        <v>34972.385907980984</v>
-      </c>
-      <c r="V35">
-        <f>U35/(L35*2*PI()/60)</f>
-        <v>366.99086300917691</v>
-      </c>
-    </row>
-    <row r="36" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L36">
-        <f t="shared" si="7"/>
-        <v>920</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000043E-2</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="1"/>
-        <v>7,42630388410723+5,11414326730727i</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="2"/>
-        <v>36,5357803501808-25,1604590937309i</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="3"/>
-        <v>44.361153587389538</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="4"/>
         <v>76.835771895725046</v>
       </c>
       <c r="R36">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O36,$F$8)),COMPLEX($B$8/M36,$B$9)))</f>
+        <f t="shared" ref="R36:R54" si="9">IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O36,$F$8)),COMPLEX($B$8/M36,$B$9)))</f>
         <v>41.188100244141623</v>
       </c>
       <c r="S36">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O36)))</f>
+        <v>43842.936420216894</v>
+      </c>
+      <c r="T36">
         <f>3*(1-M36)/M36*$B$8*R36*R36</f>
         <v>33825.589246552037</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <f>$B$12*(L36/($F$3*60/2/PI()))^2</f>
         <v>20.364383999999994</v>
       </c>
-      <c r="U36">
-        <f t="shared" si="5"/>
+      <c r="V36">
+        <f t="shared" si="6"/>
         <v>33805.224862552037</v>
       </c>
-      <c r="V36">
-        <f>U36/(L36*2*PI()/60)</f>
+      <c r="W36">
+        <f>V36/(L36*2*PI()/60)</f>
         <v>350.88708516575184</v>
       </c>
     </row>
-    <row r="37" spans="12:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L37">
         <f>L36+10</f>
         <v>930</v>
       </c>
       <c r="M37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0000000000000118E-2</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8,23983502394494+5,46192874117581i</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33,7257417959594-22,3557386643686i</v>
       </c>
       <c r="P37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.462386372003166</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70.08290899179201</v>
       </c>
       <c r="R37">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O37,$F$8)),COMPLEX($B$8/M37,$B$9)))</f>
+        <f t="shared" si="9"/>
         <v>37.360253925270889</v>
       </c>
       <c r="S37">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O37)))</f>
+        <v>40470.890155151399</v>
+      </c>
+      <c r="T37">
         <f>3*(1-M37)/M37*$B$8*R37*R37</f>
         <v>32152.041630939686</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <f>$B$12*(L37/($F$3*60/2/PI()))^2</f>
         <v>20.809493999999997</v>
       </c>
-      <c r="U37">
+      <c r="V37">
+        <f t="shared" si="6"/>
+        <v>32131.232136939685</v>
+      </c>
+      <c r="W37">
+        <f>V37/(L37*2*PI()/60)</f>
+        <v>329.92544659529773</v>
+      </c>
+    </row>
+    <row r="38" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>940</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>6.000000000000006E-2</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="2"/>
+        <v>9,27980787647916+5,98326145249687i</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="3"/>
+        <v>30,4469993850037-19,631048421404i</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>36.227031808774015</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="5"/>
-        <v>32131.232136939685</v>
-      </c>
-      <c r="V37">
-        <f>U37/(L37*2*PI()/60)</f>
-        <v>329.92544659529773</v>
-      </c>
-    </row>
-    <row r="38" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L38">
-        <f t="shared" si="7"/>
-        <v>940</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="0"/>
-        <v>6.000000000000006E-2</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="1"/>
-        <v>9,27980787647916+5,98326145249687i</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="2"/>
-        <v>30,4469993850037-19,631048421404i</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="3"/>
-        <v>36.227031808774015</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="4"/>
         <v>62.747059700210436</v>
       </c>
       <c r="R38">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O38,$F$8)),COMPLEX($B$8/M38,$B$9)))</f>
+        <f t="shared" si="9"/>
         <v>33.169813576159385</v>
       </c>
       <c r="S38">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O38)))</f>
+        <v>36536.399262004503</v>
+      </c>
+      <c r="T38">
         <f>3*(1-M38)/M38*$B$8*R38*R38</f>
         <v>29885.922979685751</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <f>$B$12*(L38/($F$3*60/2/PI()))^2</f>
         <v>21.259415999999998</v>
       </c>
-      <c r="U38">
+      <c r="V38">
+        <f t="shared" si="6"/>
+        <v>29864.66356368575</v>
+      </c>
+      <c r="W38">
+        <f>V38/(L38*2*PI()/60)</f>
+        <v>303.38992531512804</v>
+      </c>
+    </row>
+    <row r="39" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>950</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="2"/>
+        <v>10,6411034685921+6,81112520916087i</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="3"/>
+        <v>26,6653372776256-17,0678681471784i</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>31.659948439929536</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="5"/>
-        <v>29864.66356368575</v>
-      </c>
-      <c r="V38">
-        <f>U38/(L38*2*PI()/60)</f>
-        <v>303.38992531512804</v>
-      </c>
-    </row>
-    <row r="39" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L39">
-        <f t="shared" si="7"/>
-        <v>950</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="0"/>
-        <v>5.000000000000001E-2</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="1"/>
-        <v>10,6411034685921+6,81112520916087i</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="2"/>
-        <v>26,6653372776256-17,0678681471784i</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="3"/>
-        <v>31.659948439929536</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="4"/>
         <v>54.836639262968966</v>
       </c>
       <c r="R39">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O39,$F$8)),COMPLEX($B$8/M39,$B$9)))</f>
+        <f t="shared" si="9"/>
         <v>28.597340663751783</v>
       </c>
       <c r="S39">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O39)))</f>
+        <v>31998.404733150601</v>
+      </c>
+      <c r="T39">
         <f>3*(1-M39)/M39*$B$8*R39*R39</f>
         <v>26940.701941057858</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <f>$B$12*(L39/($F$3*60/2/PI()))^2</f>
         <v>21.714149999999993</v>
       </c>
-      <c r="U39">
-        <f t="shared" si="5"/>
+      <c r="V39">
+        <f t="shared" si="6"/>
         <v>26918.987791057858</v>
       </c>
-      <c r="V39">
-        <f>U39/(L39*2*PI()/60)</f>
+      <c r="W39">
+        <f>V39/(L39*2*PI()/60)</f>
         <v>270.58673494593086</v>
       </c>
     </row>
-    <row r="40" spans="12:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:23" x14ac:dyDescent="0.3">
       <c r="L40">
         <f>L39+10</f>
         <v>960</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0000000000000223E-2</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12,4568934611984+8,22581894023031i</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22,36041813584-14,7655393847743i</v>
       </c>
       <c r="P40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.795698396065802</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.411511046277838</v>
       </c>
       <c r="R40">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O40,$F$8)),COMPLEX($B$8/M40,$B$9)))</f>
+        <f t="shared" si="9"/>
         <v>23.630415884042574</v>
       </c>
       <c r="S40">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O40)))</f>
+        <v>26832.501763008</v>
+      </c>
+      <c r="T40">
         <f>3*(1-M40)/M40*$B$8*R40*R40</f>
         <v>23235.818753637504</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <f>$B$12*(L40/($F$3*60/2/PI()))^2</f>
         <v>22.173695999999993</v>
       </c>
-      <c r="U40">
+      <c r="V40">
+        <f t="shared" si="6"/>
+        <v>23213.645057637503</v>
+      </c>
+      <c r="W40">
+        <f>V40/(L40*2*PI()/60)</f>
+        <v>230.91039738148467</v>
+      </c>
+    </row>
+    <row r="41" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>970</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000165E-2</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="2"/>
+        <v>14,8501114911812+10,8749614656226i</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="3"/>
+        <v>17,5330857125173-12,8397441063197i</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>21.731730794353439</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="5"/>
-        <v>23213.645057637503</v>
-      </c>
-      <c r="V40">
-        <f>U40/(L40*2*PI()/60)</f>
-        <v>230.91039738148467</v>
-      </c>
-    </row>
-    <row r="41" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L41">
-        <f t="shared" si="7"/>
-        <v>970</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000165E-2</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="1"/>
-        <v>14,8501114911812+10,8749614656226i</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="2"/>
-        <v>17,5330857125173-12,8397441063197i</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="3"/>
-        <v>21.731730794353439</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="4"/>
         <v>37.640461872229309</v>
       </c>
       <c r="R41">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O41,$F$8)),COMPLEX($B$8/M41,$B$9)))</f>
+        <f t="shared" si="9"/>
         <v>18.266867923529052</v>
       </c>
       <c r="S41">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O41)))</f>
+        <v>21039.702855020761</v>
+      </c>
+      <c r="T41">
         <f>3*(1-M41)/M41*$B$8*R41*R41</f>
         <v>18706.074739144166</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <f>$B$12*(L41/($F$3*60/2/PI()))^2</f>
         <v>22.638053999999993</v>
       </c>
-      <c r="U41">
+      <c r="V41">
+        <f t="shared" si="6"/>
+        <v>18683.436685144166</v>
+      </c>
+      <c r="W41">
+        <f>V41/(L41*2*PI()/60)</f>
+        <v>183.93162695165876</v>
+      </c>
+    </row>
+    <row r="42" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L42" s="8">
+        <v>977</v>
+      </c>
+      <c r="M42" s="8">
+        <f t="shared" si="1"/>
+        <v>2.3000000000000128E-2</v>
+      </c>
+      <c r="N42" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>16,7518870677835+14,2447616920341i</v>
+      </c>
+      <c r="O42" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>13,8577352332043-11,7837551787184i</v>
+      </c>
+      <c r="P42" s="8">
+        <f t="shared" si="4"/>
+        <v>18.190484103111839</v>
+      </c>
+      <c r="Q42" s="8">
         <f t="shared" si="5"/>
-        <v>18683.436685144166</v>
-      </c>
-      <c r="V41">
-        <f>U41/(L41*2*PI()/60)</f>
-        <v>183.93162695165876</v>
-      </c>
-    </row>
-    <row r="42" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L42" s="13">
-        <v>977</v>
-      </c>
-      <c r="M42" s="13">
-        <f t="shared" si="0"/>
-        <v>2.3000000000000128E-2</v>
-      </c>
-      <c r="N42" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>16,7518870677835+14,2447616920341i</v>
-      </c>
-      <c r="O42" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>13,8577352332043-11,7837551787184i</v>
-      </c>
-      <c r="P42" s="13">
-        <f t="shared" si="3"/>
-        <v>18.190484103111839</v>
-      </c>
-      <c r="Q42" s="13">
-        <f t="shared" si="4"/>
         <v>31.506842680863684</v>
       </c>
-      <c r="R42" s="13">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O42,$F$8)),COMPLEX($B$8/M42,$B$9)))</f>
+      <c r="R42" s="8">
+        <f t="shared" si="9"/>
         <v>14.281936538980661</v>
       </c>
-      <c r="S42" s="13">
+      <c r="S42">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O42)))</f>
+        <v>16629.28227984516</v>
+      </c>
+      <c r="T42" s="8">
         <f>3*(1-M42)/M42*$B$8*R42*R42</f>
         <v>15022.594131701813</v>
       </c>
-      <c r="T42" s="13">
+      <c r="U42" s="8">
         <f>$B$12*(L42/($F$3*60/2/PI()))^2</f>
         <v>22.965967739999993</v>
       </c>
-      <c r="U42" s="13">
-        <f t="shared" si="5"/>
+      <c r="V42" s="8">
+        <f t="shared" si="6"/>
         <v>14999.628163961814</v>
       </c>
-      <c r="V42" s="13">
-        <f>U42/(L42*2*PI()/60)</f>
+      <c r="W42" s="8">
+        <f>V42/(L42*2*PI()/60)</f>
         <v>146.60787923244217</v>
       </c>
     </row>
-    <row r="43" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L43" s="12">
+    <row r="43" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L43" s="7">
         <f>L42+2</f>
         <v>979</v>
       </c>
-      <c r="M43" s="12">
-        <f t="shared" si="0"/>
+      <c r="M43" s="7">
+        <f t="shared" si="1"/>
         <v>2.099999999999998E-2</v>
       </c>
-      <c r="N43" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="N43" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>17,2515036033581+15,5864976782552i</v>
       </c>
-      <c r="O43" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="O43" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>12,765811649486-11,5337363171651i</v>
       </c>
-      <c r="P43" s="12">
-        <f t="shared" si="3"/>
+      <c r="P43" s="7">
+        <f t="shared" si="4"/>
         <v>17.204447695408465</v>
       </c>
-      <c r="Q43" s="12">
-        <f t="shared" si="4"/>
+      <c r="Q43" s="7">
+        <f t="shared" si="5"/>
         <v>29.798977524608741</v>
       </c>
-      <c r="R43" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O43,$F$8)),COMPLEX($B$8/M43,$B$9)))</f>
+      <c r="R43" s="7">
+        <f t="shared" si="9"/>
         <v>13.10978777508932</v>
       </c>
-      <c r="S43" s="12">
+      <c r="S43">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O43)))</f>
+        <v>15318.9739793832</v>
+      </c>
+      <c r="T43" s="7">
         <f>3*(1-M43)/M43*$B$8*R43*R43</f>
         <v>13891.80658218073</v>
       </c>
-      <c r="T43" s="12">
+      <c r="U43" s="7">
         <f>$B$12*(L43/($F$3*60/2/PI()))^2</f>
         <v>23.060090459999994</v>
       </c>
-      <c r="U43" s="12">
+      <c r="V43" s="7">
+        <f t="shared" si="6"/>
+        <v>13868.746491720731</v>
+      </c>
+      <c r="W43" s="7">
+        <f>V43/(L43*2*PI()/60)</f>
+        <v>135.27760318564265</v>
+      </c>
+    </row>
+    <row r="44" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L44" s="7">
+        <f t="shared" ref="L44:L52" si="10">L43+2</f>
+        <v>981</v>
+      </c>
+      <c r="M44" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000107E-2</v>
+      </c>
+      <c r="N44" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>17,6775029944797+17,1501426033659i</v>
+      </c>
+      <c r="O44" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>11,6563642365874-11,3086282014306i</v>
+      </c>
+      <c r="P44" s="7">
+        <f t="shared" si="4"/>
+        <v>16.240563383521685</v>
+      </c>
+      <c r="Q44" s="7">
         <f t="shared" si="5"/>
-        <v>13868.746491720731</v>
-      </c>
-      <c r="V43" s="12">
-        <f>U43/(L43*2*PI()/60)</f>
-        <v>135.27760318564265</v>
-      </c>
-    </row>
-    <row r="44" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L44" s="12">
-        <f t="shared" ref="L44:L52" si="8">L43+2</f>
-        <v>981</v>
-      </c>
-      <c r="M44" s="12">
-        <f t="shared" si="0"/>
-        <v>1.9000000000000107E-2</v>
-      </c>
-      <c r="N44" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>17,6775029944797+17,1501426033659i</v>
-      </c>
-      <c r="O44" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>11,6563642365874-11,3086282014306i</v>
-      </c>
-      <c r="P44" s="12">
-        <f t="shared" si="3"/>
-        <v>16.240563383521685</v>
-      </c>
-      <c r="Q44" s="12">
-        <f t="shared" si="4"/>
         <v>28.129480923802273</v>
       </c>
-      <c r="R44" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O44,$F$8)),COMPLEX($B$8/M44,$B$9)))</f>
+      <c r="R44" s="7">
+        <f t="shared" si="9"/>
         <v>11.923171310550547</v>
       </c>
-      <c r="S44" s="12">
+      <c r="S44">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O44)))</f>
+        <v>13987.63708390488</v>
+      </c>
+      <c r="T44" s="7">
         <f>3*(1-M44)/M44*$B$8*R44*R44</f>
         <v>12726.324198192711</v>
       </c>
-      <c r="T44" s="12">
+      <c r="U44" s="7">
         <f>$B$12*(L44/($F$3*60/2/PI()))^2</f>
         <v>23.154405659999995</v>
       </c>
-      <c r="U44" s="12">
+      <c r="V44" s="7">
+        <f t="shared" si="6"/>
+        <v>12703.169792532712</v>
+      </c>
+      <c r="W44" s="7">
+        <f>V44/(L44*2*PI()/60)</f>
+        <v>123.65579604998335</v>
+      </c>
+    </row>
+    <row r="45" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L45" s="7">
+        <f t="shared" si="10"/>
+        <v>983</v>
+      </c>
+      <c r="M45" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000095E-2</v>
+      </c>
+      <c r="N45" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>17,9768601126386+18,9659960201449i</v>
+      </c>
+      <c r="O45" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>10,5300797394414-11,1094734663728i</v>
+      </c>
+      <c r="P45" s="7">
+        <f t="shared" si="4"/>
+        <v>15.306958548942227</v>
+      </c>
+      <c r="Q45" s="7">
         <f t="shared" si="5"/>
-        <v>12703.169792532712</v>
-      </c>
-      <c r="V44" s="12">
-        <f>U44/(L44*2*PI()/60)</f>
-        <v>123.65579604998335</v>
-      </c>
-    </row>
-    <row r="45" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L45" s="12">
-        <f t="shared" si="8"/>
-        <v>983</v>
-      </c>
-      <c r="M45" s="12">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000095E-2</v>
-      </c>
-      <c r="N45" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>17,9768601126386+18,9659960201449i</v>
-      </c>
-      <c r="O45" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>10,5300797394414-11,1094734663728i</v>
-      </c>
-      <c r="P45" s="12">
-        <f t="shared" si="3"/>
-        <v>15.306958548942227</v>
-      </c>
-      <c r="Q45" s="12">
-        <f t="shared" si="4"/>
         <v>26.512429916118712</v>
       </c>
-      <c r="R45" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O45,$F$8)),COMPLEX($B$8/M45,$B$9)))</f>
+      <c r="R45" s="7">
+        <f t="shared" si="9"/>
         <v>10.722390743851509</v>
       </c>
-      <c r="S45" s="12">
+      <c r="S45">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O45)))</f>
+        <v>12636.095687329682</v>
+      </c>
+      <c r="T45" s="7">
         <f>3*(1-M45)/M45*$B$8*R45*R45</f>
         <v>11526.351625504432</v>
       </c>
-      <c r="T45" s="12">
+      <c r="U45" s="7">
         <f>$B$12*(L45/($F$3*60/2/PI()))^2</f>
         <v>23.248913339999991</v>
       </c>
-      <c r="U45" s="12">
+      <c r="V45" s="7">
+        <f t="shared" si="6"/>
+        <v>11503.102712164433</v>
+      </c>
+      <c r="W45" s="7">
+        <f>V45/(L45*2*PI()/60)</f>
+        <v>111.74622528187736</v>
+      </c>
+    </row>
+    <row r="46" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L46" s="7">
+        <f t="shared" si="10"/>
+        <v>985</v>
+      </c>
+      <c r="M46" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000083E-2</v>
+      </c>
+      <c r="N46" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>18,0746983265576+21,0582086289728i</v>
+      </c>
+      <c r="O46" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>9,38771182573769-10,937299787991i</v>
+      </c>
+      <c r="P46" s="7">
+        <f t="shared" si="4"/>
+        <v>14.413662267983224</v>
+      </c>
+      <c r="Q46" s="7">
         <f t="shared" si="5"/>
-        <v>11503.102712164433</v>
-      </c>
-      <c r="V45" s="12">
-        <f>U45/(L45*2*PI()/60)</f>
-        <v>111.74622528187736</v>
-      </c>
-    </row>
-    <row r="46" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L46" s="12">
-        <f t="shared" si="8"/>
-        <v>985</v>
-      </c>
-      <c r="M46" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5000000000000083E-2</v>
-      </c>
-      <c r="N46" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>18,0746983265576+21,0582086289728i</v>
-      </c>
-      <c r="O46" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>9,38771182573769-10,937299787991i</v>
-      </c>
-      <c r="P46" s="12">
-        <f t="shared" si="3"/>
-        <v>14.413662267983224</v>
-      </c>
-      <c r="Q46" s="12">
-        <f t="shared" si="4"/>
         <v>24.965195371285397</v>
       </c>
-      <c r="R46" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O46,$F$8)),COMPLEX($B$8/M46,$B$9)))</f>
+      <c r="R46" s="7">
+        <f t="shared" si="9"/>
         <v>9.5077816526923886</v>
       </c>
-      <c r="S46" s="12">
+      <c r="S46">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O46)))</f>
+        <v>11265.25419088524</v>
+      </c>
+      <c r="T46" s="7">
         <f>3*(1-M46)/M46*$B$8*R46*R46</f>
         <v>10292.180139379861</v>
       </c>
-      <c r="T46" s="12">
+      <c r="U46" s="7">
         <f>$B$12*(L46/($F$3*60/2/PI()))^2</f>
         <v>23.343613499999993</v>
       </c>
-      <c r="U46" s="12">
+      <c r="V46" s="7">
+        <f t="shared" si="6"/>
+        <v>10268.836525879862</v>
+      </c>
+      <c r="W46" s="7">
+        <f>V46/(L46*2*PI()/60)</f>
+        <v>99.553467587597098</v>
+      </c>
+    </row>
+    <row r="47" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L47" s="7">
+        <f t="shared" si="10"/>
+        <v>987</v>
+      </c>
+      <c r="M47" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000072E-2</v>
+      </c>
+      <c r="N47" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>17,8695742123044+23,434563591495i</v>
+      </c>
+      <c r="O47" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>8,23008169788549-10,7931151923863i</v>
+      </c>
+      <c r="P47" s="7">
+        <f t="shared" si="4"/>
+        <v>13.572972419849297</v>
+      </c>
+      <c r="Q47" s="7">
         <f t="shared" si="5"/>
-        <v>10268.836525879862</v>
-      </c>
-      <c r="V46" s="12">
-        <f>U46/(L46*2*PI()/60)</f>
-        <v>99.553467587597098</v>
-      </c>
-    </row>
-    <row r="47" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L47" s="12">
-        <f t="shared" si="8"/>
-        <v>987</v>
-      </c>
-      <c r="M47" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3000000000000072E-2</v>
-      </c>
-      <c r="N47" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>17,8695742123044+23,434563591495i</v>
-      </c>
-      <c r="O47" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>8,23008169788549-10,7931151923863i</v>
-      </c>
-      <c r="P47" s="12">
-        <f t="shared" si="3"/>
-        <v>13.572972419849297</v>
-      </c>
-      <c r="Q47" s="12">
-        <f t="shared" si="4"/>
         <v>23.50907784091007</v>
       </c>
-      <c r="R47" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O47,$F$8)),COMPLEX($B$8/M47,$B$9)))</f>
+      <c r="R47" s="7">
+        <f t="shared" si="9"/>
         <v>8.2797121030803353</v>
       </c>
-      <c r="S47" s="12">
+      <c r="S47">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O47)))</f>
+        <v>9876.0980374626015</v>
+      </c>
+      <c r="T47" s="7">
         <f>3*(1-M47)/M47*$B$8*R47*R47</f>
         <v>9024.1910422898072</v>
       </c>
-      <c r="T47" s="12">
+      <c r="U47" s="7">
         <f>$B$12*(L47/($F$3*60/2/PI()))^2</f>
         <v>23.438506139999991</v>
       </c>
-      <c r="U47" s="12">
+      <c r="V47" s="7">
+        <f t="shared" si="6"/>
+        <v>9000.7525361498065</v>
+      </c>
+      <c r="W47" s="7">
+        <f>V47/(L47*2*PI()/60)</f>
+        <v>87.082933597273865</v>
+      </c>
+    </row>
+    <row r="48" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L48" s="7">
+        <f t="shared" si="10"/>
+        <v>989</v>
+      </c>
+      <c r="M48" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000197E-2</v>
+      </c>
+      <c r="N48" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>17,232258568146+26,0700405240154i</v>
+      </c>
+      <c r="O48" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>7,05807835352414-10,6779031878145i</v>
+      </c>
+      <c r="P48" s="7">
+        <f t="shared" si="4"/>
+        <v>12.799769003104123</v>
+      </c>
+      <c r="Q48" s="7">
         <f t="shared" si="5"/>
-        <v>9000.7525361498065</v>
-      </c>
-      <c r="V47" s="12">
-        <f>U47/(L47*2*PI()/60)</f>
-        <v>87.082933597273865</v>
-      </c>
-    </row>
-    <row r="48" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L48" s="12">
-        <f t="shared" si="8"/>
-        <v>989</v>
-      </c>
-      <c r="M48" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000197E-2</v>
-      </c>
-      <c r="N48" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>17,232258568146+26,0700405240154i</v>
-      </c>
-      <c r="O48" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>7,05807835352414-10,6779031878145i</v>
-      </c>
-      <c r="P48" s="12">
-        <f t="shared" si="3"/>
-        <v>12.799769003104123</v>
-      </c>
-      <c r="Q48" s="12">
-        <f t="shared" si="4"/>
         <v>22.169850238521576</v>
       </c>
-      <c r="R48" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O48,$F$8)),COMPLEX($B$8/M48,$B$9)))</f>
+      <c r="R48" s="7">
+        <f t="shared" si="9"/>
         <v>7.0385830375650418</v>
       </c>
-      <c r="S48" s="12">
+      <c r="S48">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O48)))</f>
+        <v>8469.6940242289802</v>
+      </c>
+      <c r="T48" s="7">
         <f>3*(1-M48)/M48*$B$8*R48*R48</f>
         <v>7722.8587528278676</v>
       </c>
-      <c r="T48" s="12">
+      <c r="U48" s="7">
         <f>$B$12*(L48/($F$3*60/2/PI()))^2</f>
         <v>23.533591259999994</v>
       </c>
-      <c r="U48" s="12">
+      <c r="V48" s="7">
+        <f t="shared" si="6"/>
+        <v>7699.3251615678673</v>
+      </c>
+      <c r="W48" s="7">
+        <f>V48/(L48*2*PI()/60)</f>
+        <v>74.340889257957457</v>
+      </c>
+    </row>
+    <row r="49" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L49" s="7">
+        <f t="shared" si="10"/>
+        <v>991</v>
+      </c>
+      <c r="M49" s="7">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000496E-3</v>
+      </c>
+      <c r="N49" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>16,0136115137808+28,8840337736521i</v>
+      </c>
+      <c r="O49" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>5,87265846733963-10,5926177468329i</v>
+      </c>
+      <c r="P49" s="7">
+        <f t="shared" si="4"/>
+        <v>12.111633589426949</v>
+      </c>
+      <c r="Q49" s="7">
         <f t="shared" si="5"/>
-        <v>7699.3251615678673</v>
-      </c>
-      <c r="V48" s="12">
-        <f>U48/(L48*2*PI()/60)</f>
-        <v>74.340889257957457</v>
-      </c>
-    </row>
-    <row r="49" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L49" s="12">
-        <f t="shared" si="8"/>
-        <v>991</v>
-      </c>
-      <c r="M49" s="12">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000496E-3</v>
-      </c>
-      <c r="N49" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>16,0136115137808+28,8840337736521i</v>
-      </c>
-      <c r="O49" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>5,87265846733963-10,5926177468329i</v>
-      </c>
-      <c r="P49" s="12">
-        <f t="shared" si="3"/>
-        <v>12.111633589426949</v>
-      </c>
-      <c r="Q49" s="12">
-        <f t="shared" si="4"/>
         <v>20.977964739545286</v>
       </c>
-      <c r="R49" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O49,$F$8)),COMPLEX($B$8/M49,$B$9)))</f>
+      <c r="R49" s="7">
+        <f t="shared" si="9"/>
         <v>5.7848285320671895</v>
       </c>
-      <c r="S49" s="12">
+      <c r="S49">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O49)))</f>
+        <v>7047.1901608075495</v>
+      </c>
+      <c r="T49" s="7">
         <f>3*(1-M49)/M49*$B$8*R49*R49</f>
         <v>6388.7535386116297</v>
       </c>
-      <c r="T49" s="12">
+      <c r="U49" s="7">
         <f>$B$12*(L49/($F$3*60/2/PI()))^2</f>
         <v>23.628868859999994</v>
       </c>
-      <c r="U49" s="12">
-        <f t="shared" si="5"/>
+      <c r="V49" s="7">
+        <f t="shared" si="6"/>
         <v>6365.1246697516299</v>
       </c>
-      <c r="V49" s="12">
-        <f>U49/(L49*2*PI()/60)</f>
+      <c r="W49" s="7">
+        <f>V49/(L49*2*PI()/60)</f>
         <v>61.334473537061939</v>
       </c>
     </row>
-    <row r="50" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L50" s="12">
+    <row r="50" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L50" s="7">
         <f>L49+2</f>
         <v>993</v>
       </c>
-      <c r="M50" s="12">
-        <f t="shared" si="0"/>
+      <c r="M50" s="7">
+        <f t="shared" si="1"/>
         <v>7.0000000000000392E-3</v>
       </c>
-      <c r="N50" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="N50" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>14,0694843654947+31,7158548436876i</v>
       </c>
-      <c r="O50" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="O50" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>4,6748458688999-10,5381781693624i</v>
       </c>
-      <c r="P50" s="12">
-        <f t="shared" si="3"/>
+      <c r="P50" s="7">
+        <f t="shared" si="4"/>
         <v>11.528546440345231</v>
       </c>
-      <c r="Q50" s="12">
-        <f t="shared" si="4"/>
+      <c r="Q50" s="7">
+        <f t="shared" si="5"/>
         <v>19.968028172095263</v>
       </c>
-      <c r="R50" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O50,$F$8)),COMPLEX($B$8/M50,$B$9)))</f>
+      <c r="R50" s="7">
+        <f t="shared" si="9"/>
         <v>4.5189159111914368</v>
       </c>
-      <c r="S50" s="12">
+      <c r="S50">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O50)))</f>
+        <v>5609.8150426798802</v>
+      </c>
+      <c r="T50" s="7">
         <f>3*(1-M50)/M50*$B$8*R50*R50</f>
         <v>5022.5438460315545</v>
       </c>
-      <c r="T50" s="12">
+      <c r="U50" s="7">
         <f>$B$12*(L50/($F$3*60/2/PI()))^2</f>
         <v>23.724338939999992</v>
       </c>
-      <c r="U50" s="12">
+      <c r="V50" s="7">
+        <f t="shared" si="6"/>
+        <v>4998.8195070915544</v>
+      </c>
+      <c r="W50" s="7">
+        <f>V50/(L50*2*PI()/60)</f>
+        <v>48.071712034913148</v>
+      </c>
+    </row>
+    <row r="51" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L51" s="7">
+        <f t="shared" si="10"/>
+        <v>995</v>
+      </c>
+      <c r="M51" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0000000000001632E-3</v>
+      </c>
+      <c r="N51" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>11,3087073409382+34,3120447899594i</v>
+      </c>
+      <c r="O51" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>3,46573059369367-10,5154638612201i</v>
+      </c>
+      <c r="P51" s="7">
+        <f t="shared" si="4"/>
+        <v>11.071868350223923</v>
+      </c>
+      <c r="Q51" s="7">
         <f t="shared" si="5"/>
-        <v>4998.8195070915544</v>
-      </c>
-      <c r="V50" s="12">
-        <f>U50/(L50*2*PI()/60)</f>
-        <v>48.071712034913148</v>
-      </c>
-    </row>
-    <row r="51" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L51" s="12">
-        <f t="shared" si="8"/>
-        <v>995</v>
-      </c>
-      <c r="M51" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0000000000001632E-3</v>
-      </c>
-      <c r="N51" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>11,3087073409382+34,3120447899594i</v>
-      </c>
-      <c r="O51" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>3,46573059369367-10,5154638612201i</v>
-      </c>
-      <c r="P51" s="12">
-        <f t="shared" si="3"/>
-        <v>11.071868350223923</v>
-      </c>
-      <c r="Q51" s="12">
-        <f t="shared" si="4"/>
         <v>19.177038517301639</v>
       </c>
-      <c r="R51" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O51,$F$8)),COMPLEX($B$8/M51,$B$9)))</f>
+      <c r="R51" s="7">
+        <f t="shared" si="9"/>
         <v>3.2413457125119796</v>
       </c>
-      <c r="S51" s="12">
+      <c r="S51">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O51)))</f>
+        <v>4158.8767124324104</v>
+      </c>
+      <c r="T51" s="7">
         <f>3*(1-M51)/M51*$B$8*R51*R51</f>
         <v>3624.9981804655158</v>
       </c>
-      <c r="T51" s="12">
+      <c r="U51" s="7">
         <f>$B$12*(L51/($F$3*60/2/PI()))^2</f>
         <v>23.820001499999993</v>
       </c>
-      <c r="U51" s="12">
+      <c r="V51" s="7">
+        <f t="shared" si="6"/>
+        <v>3601.1781789655156</v>
+      </c>
+      <c r="W51" s="7">
+        <f>V51/(L51*2*PI()/60)</f>
+        <v>34.561526118815998</v>
+      </c>
+    </row>
+    <row r="52" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L52" s="7">
+        <f t="shared" si="10"/>
+        <v>997</v>
+      </c>
+      <c r="M52" s="7">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000165E-3</v>
+      </c>
+      <c r="N52" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>7,75789272901276+36,3478301496493i</v>
+      </c>
+      <c r="O52" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>2,24646748758798-10,5253090662351i</v>
+      </c>
+      <c r="P52" s="7">
+        <f t="shared" si="4"/>
+        <v>10.762376462127714</v>
+      </c>
+      <c r="Q52" s="7">
         <f t="shared" si="5"/>
-        <v>3601.1781789655156</v>
-      </c>
-      <c r="V51" s="12">
-        <f>U51/(L51*2*PI()/60)</f>
-        <v>34.561526118815998</v>
-      </c>
-    </row>
-    <row r="52" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L52" s="12">
-        <f t="shared" si="8"/>
-        <v>997</v>
-      </c>
-      <c r="M52" s="12">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000165E-3</v>
-      </c>
-      <c r="N52" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>7,75789272901276+36,3478301496493i</v>
-      </c>
-      <c r="O52" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>2,24646748758798-10,5253090662351i</v>
-      </c>
-      <c r="P52" s="12">
-        <f t="shared" si="3"/>
-        <v>10.762376462127714</v>
-      </c>
-      <c r="Q52" s="12">
-        <f t="shared" si="4"/>
         <v>18.640982842588581</v>
       </c>
-      <c r="R52" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O52,$F$8)),COMPLEX($B$8/M52,$B$9)))</f>
+      <c r="R52" s="7">
+        <f t="shared" si="9"/>
         <v>1.9526514910920718</v>
       </c>
-      <c r="S52" s="12">
+      <c r="S52">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O52)))</f>
+        <v>2695.7609851055759</v>
+      </c>
+      <c r="T52" s="7">
         <f>3*(1-M52)/M52*$B$8*R52*R52</f>
         <v>2196.9864920713235</v>
       </c>
-      <c r="T52" s="12">
+      <c r="U52" s="7">
         <f>$B$12*(L52/($F$3*60/2/PI()))^2</f>
         <v>23.915856539999993</v>
       </c>
-      <c r="U52" s="12">
-        <f t="shared" si="5"/>
+      <c r="V52" s="7">
+        <f t="shared" si="6"/>
         <v>2173.0706355313237</v>
       </c>
-      <c r="V52" s="12">
-        <f>U52/(L52*2*PI()/60)</f>
+      <c r="W52" s="7">
+        <f>V52/(L52*2*PI()/60)</f>
         <v>20.81373721159418</v>
       </c>
     </row>
-    <row r="53" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L53" s="12">
+    <row r="53" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L53" s="7">
         <f>L52+2</f>
         <v>999</v>
       </c>
-      <c r="M53" s="12">
-        <f t="shared" si="0"/>
+      <c r="M53" s="7">
+        <f t="shared" si="1"/>
         <v>1.0000000000001412E-3</v>
       </c>
-      <c r="N53" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="N53" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>3,61314337415489+37,5002052357267i</v>
       </c>
-      <c r="O53" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="O53" s="7" t="str">
+        <f t="shared" si="3"/>
         <v>1,01827434847964-10,5684975933716i</v>
       </c>
-      <c r="P53" s="12">
-        <f t="shared" si="3"/>
+      <c r="P53" s="7">
+        <f t="shared" si="4"/>
         <v>10.61743961743475</v>
       </c>
-      <c r="Q53" s="12">
-        <f t="shared" si="4"/>
+      <c r="Q53" s="7">
+        <f t="shared" si="5"/>
         <v>18.38994486369165</v>
       </c>
-      <c r="R53" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O53,$F$8)),COMPLEX($B$8/M53,$B$9)))</f>
+      <c r="R53" s="7">
+        <f t="shared" si="9"/>
         <v>0.65339945643622388</v>
       </c>
-      <c r="S53" s="12">
+      <c r="S53">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O53)))</f>
+        <v>1221.9292181755679</v>
+      </c>
+      <c r="T53" s="7">
         <f>3*(1-M53)/M53*$B$8*R53*R53</f>
         <v>739.48102453095703</v>
       </c>
-      <c r="T53" s="12">
+      <c r="U53" s="7">
         <f>$B$12*(L53/($F$3*60/2/PI()))^2</f>
         <v>24.011904059999996</v>
       </c>
-      <c r="U53" s="12">
+      <c r="V53" s="7">
+        <f t="shared" si="6"/>
+        <v>715.46912047095702</v>
+      </c>
+      <c r="W53" s="7">
+        <f>V53/(L53*2*PI()/60)</f>
+        <v>6.8390658950488641</v>
+      </c>
+    </row>
+    <row r="54" spans="12:23" x14ac:dyDescent="0.3">
+      <c r="L54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="M54" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3570366640911004E-16</v>
+      </c>
+      <c r="N54" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1,42555713143981+37,6718479892497i</v>
+      </c>
+      <c r="O54" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>0,401226227504907-10,6028254627711i</v>
+      </c>
+      <c r="P54" s="7">
+        <f t="shared" si="4"/>
+        <v>10.610414236947822</v>
+      </c>
+      <c r="Q54" s="7">
         <f t="shared" si="5"/>
-        <v>715.46912047095702</v>
-      </c>
-      <c r="V53" s="12">
-        <f>U53/(L53*2*PI()/60)</f>
-        <v>6.8390658950488641</v>
-      </c>
-    </row>
-    <row r="54" spans="12:22" x14ac:dyDescent="0.3">
-      <c r="L54" s="12">
-        <v>1000</v>
-      </c>
-      <c r="M54" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3570366640911004E-16</v>
-      </c>
-      <c r="N54" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>1,42555713143981+37,6718479892497i</v>
-      </c>
-      <c r="O54" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>0,401226227504907-10,6028254627711i</v>
-      </c>
-      <c r="P54" s="12">
-        <f t="shared" si="3"/>
-        <v>10.610414236947822</v>
-      </c>
-      <c r="Q54" s="12">
-        <f t="shared" si="4"/>
         <v>18.377776547745786</v>
       </c>
-      <c r="R54" s="12">
-        <f>IMABS(IMDIV(IMSUB(COMPLEX($B$3,0),IMPRODUCT(O54,$F$8)),COMPLEX($B$8/M54,$B$9)))</f>
+      <c r="R54" s="7">
+        <f t="shared" si="9"/>
         <v>8.8834182394309678E-14</v>
       </c>
-      <c r="S54" s="12">
+      <c r="S54">
+        <f>3*IMREAL(IMPRODUCT(COMPLEX(Datos!$B$3,0),IMCONJUGATE(Datos!O54)))</f>
+        <v>481.47147300588898</v>
+      </c>
+      <c r="T54" s="7">
         <f>3*(1-M54)/M54*$B$8*R54*R54</f>
         <v>1.0082602505466506E-10</v>
       </c>
-      <c r="T54" s="12">
+      <c r="U54" s="7">
         <f>$B$12*(L54/($F$3*60/2/PI()))^2</f>
         <v>24.059999999999992</v>
       </c>
-      <c r="U54" s="12">
+      <c r="V54" s="7">
         <v>0</v>
       </c>
-      <c r="V54" s="12">
-        <f>U54/(L54*2*PI()/60)</f>
+      <c r="W54" s="7">
+        <f>V54/(L54*2*PI()/60)</f>
         <v>0</v>
       </c>
     </row>
@@ -8463,8 +8916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE918E8-44BB-4F40-87EA-9DABC6361072}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
